--- a/medicine/Enfance/Ise_Hideko/Ise_Hideko.xlsx
+++ b/medicine/Enfance/Ise_Hideko/Ise_Hideko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hideko Ise (いせひでこ) est une auteure illustratrice d’albums illustrés jeunesse. Elle est traduite et éditée en France par les éditions nobi nobi ! et Seuil.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hideko Ise est née en 1949 au Japon. Elle entre à Tokyo National University of Fine Arts &amp; Music (Tokyo University of the Arts). 
 La plupart de ses œuvres sont irriguées par le courant de ses expériences vécues et de ses émotions, qu’elle transpose en les projetant dans la psychologie et le langage des enfants. À ce titre, on peut rapprocher ses ouvrages des romans d’initiation et d’apprentissage.
 Hideko Ise est également essayiste, et traductrice de français en japonais. Elle a passé une année à Paris à partir de 1972, pour y parfaire sa technique de peintre et de dessinatrice. Elle est restée, depuis, très attachée à la culture française.
-Elle collabore à différentes histoires illustrées avec d'autres auteurs pour la jeunesse mais écrit également ses propres récits. Elle est connue aussi pour sa mise en images de plusieurs nouvelles de l’écrivain Kenji Miyazawa (1896-1933) : Matasaburô le vent et Gauche le violoncelliste. Elle est également violoncelliste[1].
+Elle collabore à différentes histoires illustrées avec d'autres auteurs pour la jeunesse mais écrit également ses propres récits. Elle est connue aussi pour sa mise en images de plusieurs nouvelles de l’écrivain Kenji Miyazawa (1896-1933) : Matasaburô le vent et Gauche le violoncelliste. Elle est également violoncelliste.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Prix reçus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Noma de la littérature de jeunesse avec Maki-Chan no E-Nikki
 Prix Mon livre préféré au Japon avec Relieur Ojisan (Sophie et le Relieur, 2007)
-Sankei Award for Children's Books &amp; Pictures, Illustration Prize pour Suisen Zuki no Yokka[2]
-Prix Nippon du livre illustré[3]</t>
+Sankei Award for Children's Books &amp; Pictures, Illustration Prize pour Suisen Zuki no Yokka
+Prix Nippon du livre illustré</t>
         </is>
       </c>
     </row>
@@ -580,14 +596,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En version originale
-Illustratrice
-1000の風1000のチェロ chez Kaseisha
+          <t>En version originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1000の風1000のチェロ chez Kaseisha
 あの路 chez Heibonsha
 大きな木のような人 chez Kôdansha
-ルリユールおじさん chez Rironsha
-Traductions en français
-1000 vents, 1000 violoncelles (1000の風1000のチェロ), éditions nobi nobi !, 2005
+ルリユールおじさん chez Rironsha</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ise_Hideko</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ise_Hideko</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1000 vents, 1000 violoncelles (1000の風1000のチェロ), éditions nobi nobi !, 2005
 Sophie et le relieur, éditions Seuil jeunesse, 2007
 Kimiko et le botaniste, éditions Seuil jeunesse, 2009
 Mon ami a trois pattes, éditions Seuil jeunesse, 2010
